--- a/biology/Médecine/Nouvel_hôpital_pour_enfants_de_Meilahti/Nouvel_hôpital_pour_enfants_de_Meilahti.xlsx
+++ b/biology/Médecine/Nouvel_hôpital_pour_enfants_de_Meilahti/Nouvel_hôpital_pour_enfants_de_Meilahti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nouvel_h%C3%B4pital_pour_enfants_de_Meilahti</t>
+          <t>Nouvel_hôpital_pour_enfants_de_Meilahti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nouvel hôpital pour enfants (en finnois : Uusi lastensairaala) est un hôpital pour enfants situé à Meilahti à Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nouvel hôpital pour enfants (en finnois : Uusi lastensairaala) est un hôpital pour enfants situé à Meilahti à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nouvel_h%C3%B4pital_pour_enfants_de_Meilahti</t>
+          <t>Nouvel_hôpital_pour_enfants_de_Meilahti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En septembre 2018, les activités du château des enfants et de la clinique des enfants sont transférées  au nouvel hôpital pour enfants.
-On y soigne des enfants malades venant de toute la Finlande[1],[2],[3].
+On y soigne des enfants malades venant de toute la Finlande.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nouvel_h%C3%B4pital_pour_enfants_de_Meilahti</t>
+          <t>Nouvel_hôpital_pour_enfants_de_Meilahti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le même quartier se trouvent la tour hospitalière de Meilahti, l'ancienne clinique pour enfants, la clinique de gynécologie, l'hôpital triangulaire de Meilahti, l'hôpital des yeux et des oreilles, la clinique d'oncologie, l'hôpital d'Haartman et des bâtiments de la faculté de médecine de l'université d'Helsinki[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le même quartier se trouvent la tour hospitalière de Meilahti, l'ancienne clinique pour enfants, la clinique de gynécologie, l'hôpital triangulaire de Meilahti, l'hôpital des yeux et des oreilles, la clinique d'oncologie, l'hôpital d'Haartman et des bâtiments de la faculté de médecine de l'université d'Helsinki.
 </t>
         </is>
       </c>
